--- a/bpsk_300_low_2.xlsx
+++ b/bpsk_300_low_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B412C3-0AEC-C84D-BBAC-32E5EBA9F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB38A84C-27EA-AB48-ABDC-AEA1E138F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="12400" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bpsk_300_low_2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1233,6 +1233,926 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9301-B843-AF33-06D73BE2DEDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bpsk_300_low_2!$A$96:$A$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bpsk_300_low_2!$B$96:$B$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6BB-224B-A184-EFF8F0FFBC66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1983,16 +2903,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2316,11 +3236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B95"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
